--- a/Stats/Datasets/Classical.xlsx
+++ b/Stats/Datasets/Classical.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccasement\Dropbox (Fairfield University)\MATH 2217 - Statistics I\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elucid\Desktop\Classes\General\Stats\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159A51DB-BEED-48CB-93CF-2E9AB9EBFAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17100"/>
+    <workbookView minimized="1" xWindow="4130" yWindow="1100" windowWidth="19190" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classical" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,14 +847,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -861,8 +877,12 @@
       <c r="C2">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -872,8 +892,12 @@
       <c r="C3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D36" si="0">C3-B3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -883,8 +907,12 @@
       <c r="C4">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -894,8 +922,12 @@
       <c r="C5">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -905,8 +937,12 @@
       <c r="C6">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -916,8 +952,12 @@
       <c r="C7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -927,8 +967,12 @@
       <c r="C8">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -938,8 +982,12 @@
       <c r="C9">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -949,8 +997,12 @@
       <c r="C10">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -960,8 +1012,12 @@
       <c r="C11">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -971,8 +1027,12 @@
       <c r="C12">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -982,8 +1042,12 @@
       <c r="C13">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -993,8 +1057,12 @@
       <c r="C14">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1004,8 +1072,12 @@
       <c r="C15">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1015,8 +1087,12 @@
       <c r="C16">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1026,8 +1102,12 @@
       <c r="C17">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1037,8 +1117,12 @@
       <c r="C18">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1048,8 +1132,12 @@
       <c r="C19">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1059,8 +1147,12 @@
       <c r="C20">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1070,8 +1162,12 @@
       <c r="C21">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1081,8 +1177,12 @@
       <c r="C22">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1092,8 +1192,12 @@
       <c r="C23">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1103,8 +1207,12 @@
       <c r="C24">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1114,8 +1222,12 @@
       <c r="C25">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1125,8 +1237,12 @@
       <c r="C26">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1136,8 +1252,12 @@
       <c r="C27">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1147,8 +1267,12 @@
       <c r="C28">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1158,8 +1282,12 @@
       <c r="C29">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1169,8 +1297,12 @@
       <c r="C30">
         <v>79</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1180,8 +1312,12 @@
       <c r="C31">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1191,8 +1327,12 @@
       <c r="C32">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1202,8 +1342,12 @@
       <c r="C33">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1213,8 +1357,12 @@
       <c r="C34">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1224,8 +1372,12 @@
       <c r="C35">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1234,6 +1386,10 @@
       </c>
       <c r="C36">
         <v>80</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
